--- a/devdocs/import_template.xlsx
+++ b/devdocs/import_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Vorname</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Nachname</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Firma</t>
   </si>
 </sst>
 </file>
@@ -407,19 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123710A-F9E3-4A64-8139-A63739BC5265}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -441,11 +443,17 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G4" s="1"/>
     </row>
   </sheetData>
